--- a/data_experiments/FNR_avoll_o2x.xlsx
+++ b/data_experiments/FNR_avoll_o2x.xlsx
@@ -1,15 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Floodlight\ft_Regulation_Katrin\data_experiments\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3874CA97-66E2-45ED-B03D-142B7EE35A04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -331,8 +348,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -391,15 +408,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -441,7 +466,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -473,9 +498,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -507,6 +550,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -682,14 +743,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H98"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -712,7 +775,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -723,22 +786,30 @@
         <v>7</v>
       </c>
       <c r="D2">
-        <v>1.864</v>
+        <v>1.8640000000000001</v>
       </c>
       <c r="E2">
-        <v>1.864</v>
+        <v>1.8640000000000001</v>
       </c>
       <c r="F2">
         <v>9.789458863898286</v>
       </c>
       <c r="G2">
-        <v>5.251855613679338</v>
+        <v>5.2518556136793384</v>
       </c>
       <c r="H2">
         <v>9.789458863898286</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="K2">
+        <f>E2/D2</f>
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <f>H2/F2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -749,10 +820,10 @@
         <v>8</v>
       </c>
       <c r="D3">
-        <v>1.534241794106579</v>
+        <v>1.5342417941065789</v>
       </c>
       <c r="E3">
-        <v>2.536777069675736</v>
+        <v>2.5367770696757361</v>
       </c>
       <c r="F3">
         <v>17.80467421793529</v>
@@ -761,10 +832,18 @@
         <v>11.60486846749167</v>
       </c>
       <c r="H3">
-        <v>29.43896422493587</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>29.438964224935869</v>
+      </c>
+      <c r="K3">
+        <f>E3/D3</f>
+        <v>1.6534402070261387</v>
+      </c>
+      <c r="L3">
+        <f>H3/F3</f>
+        <v>1.653440207026138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -781,16 +860,24 @@
         <v>1.073</v>
       </c>
       <c r="F4">
-        <v>9.956609095304261</v>
+        <v>9.9566090953042607</v>
       </c>
       <c r="G4">
-        <v>9.279225624701082</v>
+        <v>9.2792256247010823</v>
       </c>
       <c r="H4">
-        <v>9.956609095304261</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>9.9566090953042607</v>
+      </c>
+      <c r="K4">
+        <f>E4/D4</f>
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <f>H4/F4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -807,16 +894,24 @@
         <v>1.444</v>
       </c>
       <c r="F5">
-        <v>-19.4373363807186</v>
+        <v>-19.437336380718602</v>
       </c>
       <c r="G5">
-        <v>-13.46075926642562</v>
+        <v>-13.460759266425621</v>
       </c>
       <c r="H5">
-        <v>-19.4373363807186</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>-19.437336380718602</v>
+      </c>
+      <c r="K5">
+        <f>E5/D5</f>
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <f>H5/F5</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -841,8 +936,16 @@
       <c r="H6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="K6">
+        <f>E6/D6</f>
+        <v>1</v>
+      </c>
+      <c r="L6" t="e">
+        <f>H6/F6</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -853,22 +956,30 @@
         <v>12</v>
       </c>
       <c r="D7">
-        <v>0.882</v>
+        <v>0.88200000000000001</v>
       </c>
       <c r="E7">
-        <v>0.882</v>
+        <v>0.88200000000000001</v>
       </c>
       <c r="F7">
         <v>-8.27945538048656</v>
       </c>
       <c r="G7">
-        <v>-9.387137619599274</v>
+        <v>-9.3871376195992742</v>
       </c>
       <c r="H7">
         <v>-8.27945538048656</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="K7">
+        <f>E7/D7</f>
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <f>H7/F7</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -879,10 +990,10 @@
         <v>13</v>
       </c>
       <c r="D8">
-        <v>1.164</v>
+        <v>1.1639999999999999</v>
       </c>
       <c r="E8">
-        <v>1.164</v>
+        <v>1.1639999999999999</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -893,8 +1004,16 @@
       <c r="H8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="K8">
+        <f>E8/D8</f>
+        <v>1</v>
+      </c>
+      <c r="L8" t="e">
+        <f>H8/F8</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -905,10 +1024,10 @@
         <v>14</v>
       </c>
       <c r="D9">
-        <v>0.736</v>
+        <v>0.73599999999999999</v>
       </c>
       <c r="E9">
-        <v>0.736</v>
+        <v>0.73599999999999999</v>
       </c>
       <c r="F9">
         <v>-19.12068860791457</v>
@@ -919,8 +1038,16 @@
       <c r="H9">
         <v>-19.12068860791457</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="K9">
+        <f>E9/D9</f>
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <f>H9/F9</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -937,16 +1064,24 @@
         <v>1.556</v>
       </c>
       <c r="F10">
-        <v>0.7786444931912891</v>
+        <v>0.77864449319128914</v>
       </c>
       <c r="G10">
-        <v>0.5004141987090547</v>
+        <v>0.50041419870905468</v>
       </c>
       <c r="H10">
-        <v>0.7786444931912891</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>0.77864449319128914</v>
+      </c>
+      <c r="K10">
+        <f>E10/D10</f>
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <f>H10/F10</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -957,22 +1092,30 @@
         <v>16</v>
       </c>
       <c r="D11">
-        <v>1.533644287611342</v>
+        <v>1.5336442876113421</v>
       </c>
       <c r="E11">
-        <v>2.536122801780127</v>
+        <v>2.5361228017801269</v>
       </c>
       <c r="F11">
         <v>-8.27945538048656</v>
       </c>
       <c r="G11">
-        <v>-5.398550007565216</v>
+        <v>-5.3985500075652162</v>
       </c>
       <c r="H11">
-        <v>-13.69138577073642</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>-13.691385770736421</v>
+      </c>
+      <c r="K11">
+        <f>E11/D11</f>
+        <v>1.6536577759697784</v>
+      </c>
+      <c r="L11">
+        <f>H11/F11</f>
+        <v>1.6536577759697784</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -983,10 +1126,10 @@
         <v>17</v>
       </c>
       <c r="D12">
-        <v>1.191</v>
+        <v>1.1910000000000001</v>
       </c>
       <c r="E12">
-        <v>1.191</v>
+        <v>1.1910000000000001</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -997,8 +1140,16 @@
       <c r="H12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="K12">
+        <f>E12/D12</f>
+        <v>1</v>
+      </c>
+      <c r="L12" t="e">
+        <f>H12/F12</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1012,19 +1163,27 @@
         <v>1.697618083186416</v>
       </c>
       <c r="E13">
-        <v>2.70467794650226</v>
+        <v>2.7046779465022599</v>
       </c>
       <c r="F13">
-        <v>-8.503585277961301</v>
+        <v>-8.5035852779613013</v>
       </c>
       <c r="G13">
-        <v>-5.009127413393321</v>
+        <v>-5.0091274133933208</v>
       </c>
       <c r="H13">
-        <v>-13.54807644622482</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>-13.548076446224821</v>
+      </c>
+      <c r="K13">
+        <f>E13/D13</f>
+        <v>1.5932193308318208</v>
+      </c>
+      <c r="L13">
+        <f>H13/F13</f>
+        <v>1.5932193308318201</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1035,22 +1194,30 @@
         <v>19</v>
       </c>
       <c r="D14">
-        <v>1.489</v>
+        <v>1.4890000000000001</v>
       </c>
       <c r="E14">
-        <v>1.489</v>
+        <v>1.4890000000000001</v>
       </c>
       <c r="F14">
-        <v>0.6065413487614942</v>
+        <v>0.60654134876149424</v>
       </c>
       <c r="G14">
-        <v>0.4073481187115475</v>
+        <v>0.40734811871154752</v>
       </c>
       <c r="H14">
-        <v>0.6065413487614942</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>0.60654134876149424</v>
+      </c>
+      <c r="K14">
+        <f>E14/D14</f>
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <f>H14/F14</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1064,19 +1231,27 @@
         <v>1.630302842233069</v>
       </c>
       <c r="E15">
-        <v>2.638137292308787</v>
+        <v>2.6381372923087869</v>
       </c>
       <c r="F15">
-        <v>0.2283631564694188</v>
+        <v>0.22836315646941879</v>
       </c>
       <c r="G15">
-        <v>0.140074071242263</v>
+        <v>0.14007407124226301</v>
       </c>
       <c r="H15">
         <v>0.369534631029732</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="K15">
+        <f>E15/D15</f>
+        <v>1.6181884886462323</v>
+      </c>
+      <c r="L15">
+        <f>H15/F15</f>
+        <v>1.618188488646233</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1090,19 +1265,27 @@
         <v>1.700487775612344</v>
       </c>
       <c r="E16">
-        <v>2.70743336535044</v>
+        <v>2.7074333653504401</v>
       </c>
       <c r="F16">
-        <v>0.2283631564694275</v>
+        <v>0.22836315646942751</v>
       </c>
       <c r="G16">
-        <v>0.1342927363221968</v>
+        <v>0.13429273632219679</v>
       </c>
       <c r="H16">
         <v>0.3635886350429246</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="K16">
+        <f>E16/D16</f>
+        <v>1.5921510311213476</v>
+      </c>
+      <c r="L16">
+        <f>H16/F16</f>
+        <v>1.5921510311213474</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1113,22 +1296,30 @@
         <v>22</v>
       </c>
       <c r="D17">
-        <v>2.985</v>
+        <v>2.9849999999999999</v>
       </c>
       <c r="E17">
-        <v>2.985</v>
+        <v>2.9849999999999999</v>
       </c>
       <c r="F17">
-        <v>8.390000000000001</v>
+        <v>8.39</v>
       </c>
       <c r="G17">
-        <v>2.8107202680067</v>
+        <v>2.8107202680066998</v>
       </c>
       <c r="H17">
-        <v>8.390000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>8.39</v>
+      </c>
+      <c r="K17">
+        <f>E17/D17</f>
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <f>H17/F17</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1139,10 +1330,10 @@
         <v>23</v>
       </c>
       <c r="D18">
-        <v>2.635</v>
+        <v>2.6349999999999998</v>
       </c>
       <c r="E18">
-        <v>2.635</v>
+        <v>2.6349999999999998</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1153,8 +1344,16 @@
       <c r="H18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="K18">
+        <f>E18/D18</f>
+        <v>1</v>
+      </c>
+      <c r="L18" t="e">
+        <f>H18/F18</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1171,16 +1370,24 @@
         <v>1.327</v>
       </c>
       <c r="F19">
-        <v>-8.503585277961301</v>
+        <v>-8.5035852779613013</v>
       </c>
       <c r="G19">
-        <v>-6.408127564401885</v>
+        <v>-6.4081275644018847</v>
       </c>
       <c r="H19">
-        <v>-8.503585277961301</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>-8.5035852779613013</v>
+      </c>
+      <c r="K19">
+        <f>E19/D19</f>
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <f>H19/F19</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1191,10 +1398,10 @@
         <v>25</v>
       </c>
       <c r="D20">
-        <v>1.541</v>
+        <v>1.5409999999999999</v>
       </c>
       <c r="E20">
-        <v>1.541</v>
+        <v>1.5409999999999999</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1205,8 +1412,16 @@
       <c r="H20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="K20">
+        <f>E20/D20</f>
+        <v>1</v>
+      </c>
+      <c r="L20" t="e">
+        <f>H20/F20</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1217,10 +1432,10 @@
         <v>26</v>
       </c>
       <c r="D21">
-        <v>1.428</v>
+        <v>1.4279999999999999</v>
       </c>
       <c r="E21">
-        <v>1.428</v>
+        <v>1.4279999999999999</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1231,8 +1446,16 @@
       <c r="H21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="K21">
+        <f>E21/D21</f>
+        <v>1</v>
+      </c>
+      <c r="L21" t="e">
+        <f>H21/F21</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1257,8 +1480,16 @@
       <c r="H22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="K22">
+        <f>E22/D22</f>
+        <v>1.6240927178350888</v>
+      </c>
+      <c r="L22" t="e">
+        <f>H22/F22</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1275,16 +1506,24 @@
         <v>3.613</v>
       </c>
       <c r="F23">
-        <v>-5.452052576810869</v>
+        <v>-5.4520525768108694</v>
       </c>
       <c r="G23">
         <v>-1.509009846889253</v>
       </c>
       <c r="H23">
-        <v>-5.452052576810869</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>-5.4520525768108694</v>
+      </c>
+      <c r="K23">
+        <f>E23/D23</f>
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <f>H23/F23</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1301,16 +1540,24 @@
         <v>1.409</v>
       </c>
       <c r="F24">
-        <v>8.503585277961301</v>
+        <v>8.5035852779613013</v>
       </c>
       <c r="G24">
-        <v>6.035191822541733</v>
+        <v>6.0351918225417327</v>
       </c>
       <c r="H24">
-        <v>8.503585277961301</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>8.5035852779613013</v>
+      </c>
+      <c r="K24">
+        <f>E24/D24</f>
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <f>H24/F24</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1327,16 +1574,24 @@
         <v>1.84</v>
       </c>
       <c r="F25">
-        <v>8.404273021945482</v>
+        <v>8.4042730219454818</v>
       </c>
       <c r="G25">
         <v>4.567539685839936</v>
       </c>
       <c r="H25">
-        <v>8.404273021945482</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>8.4042730219454818</v>
+      </c>
+      <c r="K25">
+        <f>E25/D25</f>
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <f>H25/F25</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1347,22 +1602,30 @@
         <v>31</v>
       </c>
       <c r="D26">
-        <v>1.108</v>
+        <v>1.1080000000000001</v>
       </c>
       <c r="E26">
-        <v>1.108</v>
+        <v>1.1080000000000001</v>
       </c>
       <c r="F26">
-        <v>0.2116629497353107</v>
+        <v>0.21166294973531069</v>
       </c>
       <c r="G26">
-        <v>0.1910315430824104</v>
+        <v>0.19103154308241041</v>
       </c>
       <c r="H26">
-        <v>0.2116629497353107</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>0.21166294973531069</v>
+      </c>
+      <c r="K26">
+        <f>E26/D26</f>
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <f>H26/F26</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1373,10 +1636,10 @@
         <v>32</v>
       </c>
       <c r="D27">
-        <v>3.502</v>
+        <v>3.5019999999999998</v>
       </c>
       <c r="E27">
-        <v>3.502</v>
+        <v>3.5019999999999998</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -1387,8 +1650,16 @@
       <c r="H27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="K27">
+        <f>E27/D27</f>
+        <v>1</v>
+      </c>
+      <c r="L27" t="e">
+        <f>H27/F27</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1405,16 +1676,24 @@
         <v>1.151</v>
       </c>
       <c r="F28">
-        <v>0.3781781922920832</v>
+        <v>0.37817819229208322</v>
       </c>
       <c r="G28">
-        <v>0.3285648933901678</v>
+        <v>0.32856489339016781</v>
       </c>
       <c r="H28">
-        <v>0.3781781922920832</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>0.37817819229208322</v>
+      </c>
+      <c r="K28">
+        <f>E28/D28</f>
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <f>H28/F28</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1425,22 +1704,30 @@
         <v>34</v>
       </c>
       <c r="D29">
-        <v>0.664</v>
+        <v>0.66400000000000003</v>
       </c>
       <c r="E29">
-        <v>0.664</v>
+        <v>0.66400000000000003</v>
       </c>
       <c r="F29">
-        <v>-0.1521433282697421</v>
+        <v>-0.15214332826974211</v>
       </c>
       <c r="G29">
         <v>-0.2291315184785272</v>
       </c>
       <c r="H29">
-        <v>-0.1521433282697421</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>-0.15214332826974211</v>
+      </c>
+      <c r="K29">
+        <f>E29/D29</f>
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <f>H29/F29</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1451,22 +1738,30 @@
         <v>35</v>
       </c>
       <c r="D30">
-        <v>2.975</v>
+        <v>2.9750000000000001</v>
       </c>
       <c r="E30">
-        <v>2.975</v>
+        <v>2.9750000000000001</v>
       </c>
       <c r="F30">
-        <v>0.2283631564694188</v>
+        <v>0.22836315646941879</v>
       </c>
       <c r="G30">
-        <v>0.07676072486367019</v>
+        <v>7.6760724863670193E-2</v>
       </c>
       <c r="H30">
-        <v>0.2283631564694188</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>0.22836315646941879</v>
+      </c>
+      <c r="K30">
+        <f>E30/D30</f>
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <f>H30/F30</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1477,22 +1772,30 @@
         <v>36</v>
       </c>
       <c r="D31">
-        <v>1.187</v>
+        <v>1.1870000000000001</v>
       </c>
       <c r="E31">
-        <v>1.187</v>
+        <v>1.1870000000000001</v>
       </c>
       <c r="F31">
-        <v>-0.1521433282697421</v>
+        <v>-0.15214332826974211</v>
       </c>
       <c r="G31">
-        <v>-0.1281746657706336</v>
+        <v>-0.12817466577063361</v>
       </c>
       <c r="H31">
-        <v>-0.1521433282697421</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>-0.15214332826974211</v>
+      </c>
+      <c r="K31">
+        <f>E31/D31</f>
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <f>H31/F31</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1503,10 +1806,10 @@
         <v>37</v>
       </c>
       <c r="D32">
-        <v>0.964</v>
+        <v>0.96399999999999997</v>
       </c>
       <c r="E32">
-        <v>0.964</v>
+        <v>0.96399999999999997</v>
       </c>
       <c r="F32">
         <v>-1.633230604363202E-16</v>
@@ -1517,8 +1820,16 @@
       <c r="H32">
         <v>-1.633230604363202E-16</v>
       </c>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="K32">
+        <f>E32/D32</f>
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <f>H32/F32</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1529,22 +1840,30 @@
         <v>38</v>
       </c>
       <c r="D33">
-        <v>1.188</v>
+        <v>1.1879999999999999</v>
       </c>
       <c r="E33">
-        <v>0.2682873604180245</v>
+        <v>0.26828736041802448</v>
       </c>
       <c r="F33">
         <v>1.421085471520201E-14</v>
       </c>
       <c r="G33">
-        <v>1.196199891852021E-14</v>
+        <v>1.1961998918520211E-14</v>
       </c>
       <c r="H33">
-        <v>3.209253115173051E-15</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>3.2092531151730509E-15</v>
+      </c>
+      <c r="K33">
+        <f>E33/D33</f>
+        <v>0.22583111146298357</v>
+      </c>
+      <c r="L33">
+        <f>H33/F33</f>
+        <v>0.22583111146298357</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1555,10 +1874,10 @@
         <v>39</v>
       </c>
       <c r="D34">
-        <v>1.315</v>
+        <v>1.3149999999999999</v>
       </c>
       <c r="E34">
-        <v>1.315</v>
+        <v>1.3149999999999999</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -1569,8 +1888,16 @@
       <c r="H34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="K34">
+        <f>E34/D34</f>
+        <v>1</v>
+      </c>
+      <c r="L34" t="e">
+        <f>H34/F34</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1581,22 +1908,30 @@
         <v>40</v>
       </c>
       <c r="D35">
-        <v>1.695</v>
+        <v>1.6950000000000001</v>
       </c>
       <c r="E35">
-        <v>1.695</v>
+        <v>1.6950000000000001</v>
       </c>
       <c r="F35">
         <v>19.12068860791457</v>
       </c>
       <c r="G35">
-        <v>11.28064224655727</v>
+        <v>11.280642246557271</v>
       </c>
       <c r="H35">
         <v>19.12068860791457</v>
       </c>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="K35">
+        <f>E35/D35</f>
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <f>H35/F35</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1621,8 +1956,16 @@
       <c r="H36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="K36">
+        <f>E36/D36</f>
+        <v>1</v>
+      </c>
+      <c r="L36" t="e">
+        <f>H36/F36</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1642,13 +1985,21 @@
         <v>-8.27945538048656</v>
       </c>
       <c r="G37">
-        <v>-5.142518869867429</v>
+        <v>-5.1425188698674287</v>
       </c>
       <c r="H37">
         <v>-8.27945538048656</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="K37">
+        <f>E37/D37</f>
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <f>H37/F37</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1659,10 +2010,10 @@
         <v>43</v>
       </c>
       <c r="D38">
-        <v>0.858</v>
+        <v>0.85799999999999998</v>
       </c>
       <c r="E38">
-        <v>0.1084808594963469</v>
+        <v>0.10848085949634689</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -1673,8 +2024,16 @@
       <c r="H38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:8">
+      <c r="K38">
+        <f>E38/D38</f>
+        <v>0.12643456817756049</v>
+      </c>
+      <c r="L38" t="e">
+        <f>H38/F38</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1688,7 +2047,7 @@
         <v>1.43</v>
       </c>
       <c r="E39">
-        <v>0.4418589499452877</v>
+        <v>0.44185894994528768</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -1699,8 +2058,16 @@
       <c r="H39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="K39">
+        <f>E39/D39</f>
+        <v>0.30899227268901236</v>
+      </c>
+      <c r="L39" t="e">
+        <f>H39/F39</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1717,16 +2084,24 @@
         <v>2.13</v>
       </c>
       <c r="F40">
-        <v>-0.03786650170764726</v>
+        <v>-3.7866501707647257E-2</v>
       </c>
       <c r="G40">
-        <v>-0.01777770033222876</v>
+        <v>-1.7777700332228759E-2</v>
       </c>
       <c r="H40">
-        <v>-0.03786650170764726</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>-3.7866501707647257E-2</v>
+      </c>
+      <c r="K40">
+        <f>E40/D40</f>
+        <v>1</v>
+      </c>
+      <c r="L40">
+        <f>H40/F40</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1737,22 +2112,30 @@
         <v>46</v>
       </c>
       <c r="D41">
-        <v>2.574</v>
+        <v>2.5739999999999998</v>
       </c>
       <c r="E41">
-        <v>2.574</v>
+        <v>2.5739999999999998</v>
       </c>
       <c r="F41">
-        <v>3.629194102456611</v>
+        <v>3.6291941024566108</v>
       </c>
       <c r="G41">
-        <v>1.409943318747712</v>
+        <v>1.4099433187477119</v>
       </c>
       <c r="H41">
-        <v>3.629194102456611</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>3.6291941024566108</v>
+      </c>
+      <c r="K41">
+        <f>E41/D41</f>
+        <v>1</v>
+      </c>
+      <c r="L41">
+        <f>H41/F41</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1769,16 +2152,24 @@
         <v>1.117</v>
       </c>
       <c r="F42">
-        <v>-0.03786650170764731</v>
+        <v>-3.7866501707647313E-2</v>
       </c>
       <c r="G42">
-        <v>-0.03390018057980958</v>
+        <v>-3.3900180579809577E-2</v>
       </c>
       <c r="H42">
-        <v>-0.03786650170764731</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>-3.7866501707647313E-2</v>
+      </c>
+      <c r="K42">
+        <f>E42/D42</f>
+        <v>1</v>
+      </c>
+      <c r="L42">
+        <f>H42/F42</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1789,10 +2180,10 @@
         <v>48</v>
       </c>
       <c r="D43">
-        <v>1.061</v>
+        <v>1.0609999999999999</v>
       </c>
       <c r="E43">
-        <v>1.061</v>
+        <v>1.0609999999999999</v>
       </c>
       <c r="F43">
         <v>-0.1142768265620947</v>
@@ -1803,8 +2194,16 @@
       <c r="H43">
         <v>-0.1142768265620947</v>
       </c>
-    </row>
-    <row r="44" spans="1:8">
+      <c r="K43">
+        <f>E43/D43</f>
+        <v>1</v>
+      </c>
+      <c r="L43">
+        <f>H43/F43</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1824,13 +2223,21 @@
         <v>9.789458863898286</v>
       </c>
       <c r="G44">
-        <v>8.655578128999368</v>
+        <v>8.6555781289993678</v>
       </c>
       <c r="H44">
-        <v>9.789458863898284</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>9.7894588638982842</v>
+      </c>
+      <c r="K44">
+        <f>E44/D44</f>
+        <v>1</v>
+      </c>
+      <c r="L44">
+        <f>H44/F44</f>
+        <v>0.99999999999999978</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1841,22 +2248,30 @@
         <v>50</v>
       </c>
       <c r="D45">
-        <v>1.062</v>
+        <v>1.0620000000000001</v>
       </c>
       <c r="E45">
-        <v>1.062</v>
+        <v>1.0620000000000001</v>
       </c>
       <c r="F45">
-        <v>8.503585277961301</v>
+        <v>8.5035852779613013</v>
       </c>
       <c r="G45">
-        <v>8.007142446291244</v>
+        <v>8.0071424462912439</v>
       </c>
       <c r="H45">
-        <v>8.503585277961301</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>8.5035852779613013</v>
+      </c>
+      <c r="K45">
+        <f>E45/D45</f>
+        <v>1</v>
+      </c>
+      <c r="L45">
+        <f>H45/F45</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1881,8 +2296,16 @@
       <c r="H46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:8">
+      <c r="K46">
+        <f>E46/D46</f>
+        <v>1</v>
+      </c>
+      <c r="L46" t="e">
+        <f>H46/F46</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1893,10 +2316,10 @@
         <v>52</v>
       </c>
       <c r="D47">
-        <v>1.402</v>
+        <v>1.4019999999999999</v>
       </c>
       <c r="E47">
-        <v>1.402</v>
+        <v>1.4019999999999999</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -1907,8 +2330,16 @@
       <c r="H47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:8">
+      <c r="K47">
+        <f>E47/D47</f>
+        <v>1</v>
+      </c>
+      <c r="L47" t="e">
+        <f>H47/F47</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1919,22 +2350,30 @@
         <v>53</v>
       </c>
       <c r="D48">
-        <v>2.678</v>
+        <v>2.6779999999999999</v>
       </c>
       <c r="E48">
-        <v>2.678</v>
+        <v>2.6779999999999999</v>
       </c>
       <c r="F48">
-        <v>-0.3781781922920832</v>
+        <v>-0.37817819229208322</v>
       </c>
       <c r="G48">
-        <v>-0.1412166513413305</v>
+        <v>-0.14121665134133049</v>
       </c>
       <c r="H48">
-        <v>-0.3781781922920832</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>-0.37817819229208322</v>
+      </c>
+      <c r="K48">
+        <f>E48/D48</f>
+        <v>1</v>
+      </c>
+      <c r="L48">
+        <f>H48/F48</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1954,13 +2393,21 @@
         <v>8.27945538048656</v>
       </c>
       <c r="G49">
-        <v>9.462234720556069</v>
+        <v>9.4622347205560686</v>
       </c>
       <c r="H49">
         <v>8.27945538048656</v>
       </c>
-    </row>
-    <row r="50" spans="1:8">
+      <c r="K49">
+        <f>E49/D49</f>
+        <v>1</v>
+      </c>
+      <c r="L49">
+        <f>H49/F49</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1980,13 +2427,21 @@
         <v>17.80467421793529</v>
       </c>
       <c r="G50">
-        <v>12.47699664886846</v>
+        <v>12.476996648868459</v>
       </c>
       <c r="H50">
         <v>17.80467421793529</v>
       </c>
-    </row>
-    <row r="51" spans="1:8">
+      <c r="K50">
+        <f>E50/D50</f>
+        <v>1</v>
+      </c>
+      <c r="L50">
+        <f>H50/F50</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1997,10 +2452,10 @@
         <v>56</v>
       </c>
       <c r="D51">
-        <v>1.011</v>
+        <v>1.0109999999999999</v>
       </c>
       <c r="E51">
-        <v>1.011</v>
+        <v>1.0109999999999999</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -2011,8 +2466,16 @@
       <c r="H51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:8">
+      <c r="K51">
+        <f>E51/D51</f>
+        <v>1</v>
+      </c>
+      <c r="L51" t="e">
+        <f>H51/F51</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -2023,10 +2486,10 @@
         <v>57</v>
       </c>
       <c r="D52">
-        <v>1.188</v>
+        <v>1.1879999999999999</v>
       </c>
       <c r="E52">
-        <v>1.188</v>
+        <v>1.1879999999999999</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -2037,8 +2500,16 @@
       <c r="H52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:8">
+      <c r="K52">
+        <f>E52/D52</f>
+        <v>1</v>
+      </c>
+      <c r="L52" t="e">
+        <f>H52/F52</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -2049,22 +2520,30 @@
         <v>58</v>
       </c>
       <c r="D53">
-        <v>2.288</v>
+        <v>2.2879999999999998</v>
       </c>
       <c r="E53">
-        <v>2.288</v>
+        <v>2.2879999999999998</v>
       </c>
       <c r="F53">
         <v>-10</v>
       </c>
       <c r="G53">
-        <v>-4.370629370629371</v>
+        <v>-4.3706293706293708</v>
       </c>
       <c r="H53">
         <v>-10</v>
       </c>
-    </row>
-    <row r="54" spans="1:8">
+      <c r="K53">
+        <f>E53/D53</f>
+        <v>1</v>
+      </c>
+      <c r="L53">
+        <f>H53/F53</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -2075,10 +2554,10 @@
         <v>59</v>
       </c>
       <c r="D54">
-        <v>2.429</v>
+        <v>2.4289999999999998</v>
       </c>
       <c r="E54">
-        <v>2.429</v>
+        <v>2.4289999999999998</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -2089,8 +2568,16 @@
       <c r="H54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:8">
+      <c r="K54">
+        <f>E54/D54</f>
+        <v>1</v>
+      </c>
+      <c r="L54" t="e">
+        <f>H54/F54</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -2101,10 +2588,10 @@
         <v>60</v>
       </c>
       <c r="D55">
-        <v>1.791</v>
+        <v>1.7909999999999999</v>
       </c>
       <c r="E55">
-        <v>1.791</v>
+        <v>1.7909999999999999</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -2115,8 +2602,16 @@
       <c r="H55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:8">
+      <c r="K55">
+        <f>E55/D55</f>
+        <v>1</v>
+      </c>
+      <c r="L55" t="e">
+        <f>H55/F55</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -2127,22 +2622,30 @@
         <v>61</v>
       </c>
       <c r="D56">
-        <v>1.942</v>
+        <v>1.9419999999999999</v>
       </c>
       <c r="E56">
-        <v>1.942</v>
+        <v>1.9419999999999999</v>
       </c>
       <c r="F56">
-        <v>30.55421826758692</v>
+        <v>30.554218267586919</v>
       </c>
       <c r="G56">
         <v>15.73337706878832</v>
       </c>
       <c r="H56">
-        <v>30.55421826758692</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>30.554218267586919</v>
+      </c>
+      <c r="K56">
+        <f>E56/D56</f>
+        <v>1</v>
+      </c>
+      <c r="L56">
+        <f>H56/F56</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -2153,22 +2656,30 @@
         <v>62</v>
       </c>
       <c r="D57">
-        <v>1.136</v>
+        <v>1.1359999999999999</v>
       </c>
       <c r="E57">
-        <v>1.136</v>
+        <v>1.1359999999999999</v>
       </c>
       <c r="F57">
-        <v>-7.115795981726739</v>
+        <v>-7.1157959817267393</v>
       </c>
       <c r="G57">
-        <v>-6.263904913491849</v>
+        <v>-6.2639049134918494</v>
       </c>
       <c r="H57">
-        <v>-7.115795981726739</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>-7.1157959817267393</v>
+      </c>
+      <c r="K57">
+        <f>E57/D57</f>
+        <v>1</v>
+      </c>
+      <c r="L57">
+        <f>H57/F57</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -2179,10 +2690,10 @@
         <v>63</v>
       </c>
       <c r="D58">
-        <v>3.793</v>
+        <v>3.7930000000000001</v>
       </c>
       <c r="E58">
-        <v>3.793</v>
+        <v>3.7930000000000001</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -2193,8 +2704,16 @@
       <c r="H58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:8">
+      <c r="K58">
+        <f>E58/D58</f>
+        <v>1</v>
+      </c>
+      <c r="L58" t="e">
+        <f>H58/F58</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -2205,10 +2724,10 @@
         <v>64</v>
       </c>
       <c r="D59">
-        <v>2.209</v>
+        <v>2.2090000000000001</v>
       </c>
       <c r="E59">
-        <v>2.209</v>
+        <v>2.2090000000000001</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -2219,8 +2738,16 @@
       <c r="H59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:8">
+      <c r="K59">
+        <f>E59/D59</f>
+        <v>1</v>
+      </c>
+      <c r="L59" t="e">
+        <f>H59/F59</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -2231,22 +2758,30 @@
         <v>65</v>
       </c>
       <c r="D60">
-        <v>2.644</v>
+        <v>2.6440000000000001</v>
       </c>
       <c r="E60">
-        <v>2.644</v>
+        <v>2.6440000000000001</v>
       </c>
       <c r="F60">
         <v>-1.154155732316704</v>
       </c>
       <c r="G60">
-        <v>-0.4365188094995097</v>
+        <v>-0.43651880949950972</v>
       </c>
       <c r="H60">
         <v>-1.154155732316704</v>
       </c>
-    </row>
-    <row r="61" spans="1:8">
+      <c r="K60">
+        <f>E60/D60</f>
+        <v>1</v>
+      </c>
+      <c r="L60">
+        <f>H60/F60</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -2271,8 +2806,16 @@
       <c r="H61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:8">
+      <c r="K61">
+        <f>E61/D61</f>
+        <v>1</v>
+      </c>
+      <c r="L61" t="e">
+        <f>H61/F61</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -2289,16 +2832,24 @@
         <v>1.05</v>
       </c>
       <c r="F62">
-        <v>-0.7786444931912903</v>
+        <v>-0.77864449319129025</v>
       </c>
       <c r="G62">
-        <v>-0.7415661839917049</v>
+        <v>-0.74156618399170493</v>
       </c>
       <c r="H62">
-        <v>-0.7786444931912903</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>-0.77864449319129025</v>
+      </c>
+      <c r="K62">
+        <f>E62/D62</f>
+        <v>1</v>
+      </c>
+      <c r="L62">
+        <f>H62/F62</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -2309,10 +2860,10 @@
         <v>68</v>
       </c>
       <c r="D63">
-        <v>0.9409999999999999</v>
+        <v>0.94099999999999995</v>
       </c>
       <c r="E63">
-        <v>0.9409999999999999</v>
+        <v>0.94099999999999995</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -2323,8 +2874,16 @@
       <c r="H63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:8">
+      <c r="K63">
+        <f>E63/D63</f>
+        <v>1</v>
+      </c>
+      <c r="L63" t="e">
+        <f>H63/F63</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -2335,10 +2894,10 @@
         <v>69</v>
       </c>
       <c r="D64">
-        <v>2.269</v>
+        <v>2.2690000000000001</v>
       </c>
       <c r="E64">
-        <v>2.269</v>
+        <v>2.2690000000000001</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -2349,8 +2908,16 @@
       <c r="H64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:8">
+      <c r="K64">
+        <f>E64/D64</f>
+        <v>1</v>
+      </c>
+      <c r="L64" t="e">
+        <f>H64/F64</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -2370,13 +2937,21 @@
         <v>9.789458863898286</v>
       </c>
       <c r="G65">
-        <v>6.084188231136287</v>
+        <v>6.0841882311362872</v>
       </c>
       <c r="H65">
         <v>9.789458863898286</v>
       </c>
-    </row>
-    <row r="66" spans="1:8">
+      <c r="K65">
+        <f>E65/D65</f>
+        <v>1</v>
+      </c>
+      <c r="L65">
+        <f>H65/F65</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -2387,10 +2962,10 @@
         <v>71</v>
       </c>
       <c r="D66">
-        <v>3.096</v>
+        <v>3.0960000000000001</v>
       </c>
       <c r="E66">
-        <v>3.096</v>
+        <v>3.0960000000000001</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -2401,8 +2976,16 @@
       <c r="H66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:8">
+      <c r="K66">
+        <f>E66/D66</f>
+        <v>1</v>
+      </c>
+      <c r="L66" t="e">
+        <f>H66/F66</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -2416,7 +2999,7 @@
         <v>1.978</v>
       </c>
       <c r="E67">
-        <v>1.012512180715922</v>
+        <v>1.0125121807159221</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -2427,8 +3010,16 @@
       <c r="H67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:8">
+      <c r="K67">
+        <f>E67/D67</f>
+        <v>0.51188684566022347</v>
+      </c>
+      <c r="L67" t="e">
+        <f>H67/F67</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -2442,7 +3033,7 @@
         <v>1.476</v>
       </c>
       <c r="E68">
-        <v>0.4803910519540999</v>
+        <v>0.48039105195409992</v>
       </c>
       <c r="F68">
         <v>-17.80467421793529</v>
@@ -2451,10 +3042,18 @@
         <v>-12.06278741052526</v>
       </c>
       <c r="H68">
-        <v>-5.794855133640903</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>-5.7948551336409029</v>
+      </c>
+      <c r="K68">
+        <f>E68/D68</f>
+        <v>0.32546819238082653</v>
+      </c>
+      <c r="L68">
+        <f>H68/F68</f>
+        <v>0.32546819238082642</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -2465,10 +3064,10 @@
         <v>74</v>
       </c>
       <c r="D69">
-        <v>1.638183366130341</v>
+        <v>1.6381833661303411</v>
       </c>
       <c r="E69">
-        <v>2.646116971121392</v>
+        <v>2.6461169711213919</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -2479,8 +3078,16 @@
       <c r="H69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:8">
+      <c r="K69">
+        <f>E69/D69</f>
+        <v>1.615275204125626</v>
+      </c>
+      <c r="L69" t="e">
+        <f>H69/F69</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -2491,10 +3098,10 @@
         <v>75</v>
       </c>
       <c r="D70">
-        <v>4.647</v>
+        <v>4.6470000000000002</v>
       </c>
       <c r="E70">
-        <v>4.647</v>
+        <v>4.6470000000000002</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -2505,8 +3112,16 @@
       <c r="H70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:8">
+      <c r="K70">
+        <f>E70/D70</f>
+        <v>1</v>
+      </c>
+      <c r="L70" t="e">
+        <f>H70/F70</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -2520,10 +3135,10 @@
         <v>1.691051308972096</v>
       </c>
       <c r="E71">
-        <v>2.698347785813069</v>
+        <v>2.6983477858130689</v>
       </c>
       <c r="F71">
-        <v>2.735657995370771E-15</v>
+        <v>2.7356579953707709E-15</v>
       </c>
       <c r="G71">
         <v>1.617726192491249E-15</v>
@@ -2531,8 +3146,16 @@
       <c r="H71">
         <v>4.365187889560568E-15</v>
       </c>
-    </row>
-    <row r="72" spans="1:8">
+      <c r="K71">
+        <f>E71/D71</f>
+        <v>1.5956628704857319</v>
+      </c>
+      <c r="L71">
+        <f>H71/F71</f>
+        <v>1.5956628704857321</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -2543,10 +3166,10 @@
         <v>77</v>
       </c>
       <c r="D72">
-        <v>1.517</v>
+        <v>1.5169999999999999</v>
       </c>
       <c r="E72">
-        <v>1.517</v>
+        <v>1.5169999999999999</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -2557,8 +3180,16 @@
       <c r="H72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:8">
+      <c r="K72">
+        <f>E72/D72</f>
+        <v>1</v>
+      </c>
+      <c r="L72" t="e">
+        <f>H72/F72</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -2575,16 +3206,24 @@
         <v>4.429109187731199</v>
       </c>
       <c r="F73">
-        <v>-3.392325650114964E-17</v>
+        <v>-3.3923256501149638E-17</v>
       </c>
       <c r="G73">
-        <v>-8.664944189310252E-18</v>
+        <v>-8.6649441893102523E-18</v>
       </c>
       <c r="H73">
-        <v>-3.83779839200521E-17</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>-3.8377983920052102E-17</v>
+      </c>
+      <c r="K73">
+        <f>E73/D73</f>
+        <v>1.1313178001867685</v>
+      </c>
+      <c r="L73">
+        <f>H73/F73</f>
+        <v>1.1313178001867685</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -2595,22 +3234,30 @@
         <v>79</v>
       </c>
       <c r="D74">
-        <v>1.058</v>
+        <v>1.0580000000000001</v>
       </c>
       <c r="E74">
-        <v>1.058</v>
+        <v>1.0580000000000001</v>
       </c>
       <c r="F74">
-        <v>19.4373363807186</v>
+        <v>19.437336380718602</v>
       </c>
       <c r="G74">
-        <v>18.37177351674726</v>
+        <v>18.371773516747261</v>
       </c>
       <c r="H74">
-        <v>19.4373363807186</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>19.437336380718602</v>
+      </c>
+      <c r="K74">
+        <f>E74/D74</f>
+        <v>1</v>
+      </c>
+      <c r="L74">
+        <f>H74/F74</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -2630,13 +3277,21 @@
         <v>10</v>
       </c>
       <c r="G75">
-        <v>7.923930269413629</v>
+        <v>7.9239302694136287</v>
       </c>
       <c r="H75">
         <v>10</v>
       </c>
-    </row>
-    <row r="76" spans="1:8">
+      <c r="K75">
+        <f>E75/D75</f>
+        <v>1</v>
+      </c>
+      <c r="L75">
+        <f>H75/F75</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -2647,22 +3302,30 @@
         <v>81</v>
       </c>
       <c r="D76">
-        <v>1.424</v>
+        <v>1.4239999999999999</v>
       </c>
       <c r="E76">
-        <v>0.4369633775494665</v>
+        <v>0.43696337754946651</v>
       </c>
       <c r="F76">
-        <v>0.05412221624731921</v>
+        <v>5.4122216247319208E-2</v>
       </c>
       <c r="G76">
-        <v>0.03800717433098259</v>
+        <v>3.8007174330982593E-2</v>
       </c>
       <c r="H76">
-        <v>0.01660774326677754</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>1.6607743266777539E-2</v>
+      </c>
+      <c r="K76">
+        <f>E76/D76</f>
+        <v>0.30685630445889506</v>
+      </c>
+      <c r="L76">
+        <f>H76/F76</f>
+        <v>0.30685630445889506</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -2673,10 +3336,10 @@
         <v>82</v>
       </c>
       <c r="D77">
-        <v>2.697</v>
+        <v>2.6970000000000001</v>
       </c>
       <c r="E77">
-        <v>2.697</v>
+        <v>2.6970000000000001</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -2687,8 +3350,16 @@
       <c r="H77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:8">
+      <c r="K77">
+        <f>E77/D77</f>
+        <v>1</v>
+      </c>
+      <c r="L77" t="e">
+        <f>H77/F77</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -2699,22 +3370,30 @@
         <v>83</v>
       </c>
       <c r="D78">
-        <v>1.354269473611389</v>
+        <v>1.3542694736113889</v>
       </c>
       <c r="E78">
-        <v>2.326260340838474</v>
+        <v>2.3262603408384739</v>
       </c>
       <c r="F78">
-        <v>-1.100033516069384</v>
+        <v>-1.1000335160693839</v>
       </c>
       <c r="G78">
-        <v>-0.8122707758714804</v>
+        <v>-0.81227077587148044</v>
       </c>
       <c r="H78">
         <v>-1.889553291931922</v>
       </c>
-    </row>
-    <row r="79" spans="1:8">
+      <c r="K78">
+        <f>E78/D78</f>
+        <v>1.7177233823598685</v>
+      </c>
+      <c r="L78">
+        <f>H78/F78</f>
+        <v>1.7177233823598694</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -2739,8 +3418,16 @@
       <c r="H79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:8">
+      <c r="K79">
+        <f>E79/D79</f>
+        <v>1</v>
+      </c>
+      <c r="L79" t="e">
+        <f>H79/F79</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -2751,10 +3438,10 @@
         <v>85</v>
       </c>
       <c r="D80">
-        <v>3.239</v>
+        <v>3.2389999999999999</v>
       </c>
       <c r="E80">
-        <v>3.068361178233875</v>
+        <v>3.0683611782338751</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -2765,8 +3452,16 @@
       <c r="H80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:8">
+      <c r="K80">
+        <f>E80/D80</f>
+        <v>0.94731743693543535</v>
+      </c>
+      <c r="L80" t="e">
+        <f>H80/F80</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -2777,10 +3472,10 @@
         <v>86</v>
       </c>
       <c r="D81">
-        <v>1.497</v>
+        <v>1.4970000000000001</v>
       </c>
       <c r="E81">
-        <v>1.497</v>
+        <v>1.4970000000000001</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -2791,8 +3486,16 @@
       <c r="H81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:8">
+      <c r="K81">
+        <f>E81/D81</f>
+        <v>1</v>
+      </c>
+      <c r="L81" t="e">
+        <f>H81/F81</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -2806,7 +3509,7 @@
         <v>1.431</v>
       </c>
       <c r="E82">
-        <v>0.4426778059722186</v>
+        <v>0.44267780597221862</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -2817,8 +3520,16 @@
       <c r="H82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:8">
+      <c r="K82">
+        <f>E82/D82</f>
+        <v>0.30934857160881801</v>
+      </c>
+      <c r="L82" t="e">
+        <f>H82/F82</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -2835,16 +3546,24 @@
         <v>1.82</v>
       </c>
       <c r="F83">
-        <v>7.115795981726746</v>
+        <v>7.1157959817267464</v>
       </c>
       <c r="G83">
-        <v>3.909778011937772</v>
+        <v>3.9097780119377719</v>
       </c>
       <c r="H83">
-        <v>7.115795981726746</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>7.1157959817267464</v>
+      </c>
+      <c r="K83">
+        <f>E83/D83</f>
+        <v>1</v>
+      </c>
+      <c r="L83">
+        <f>H83/F83</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -2861,16 +3580,24 @@
         <v>1.897</v>
       </c>
       <c r="F84">
-        <v>0.2283631564694195</v>
+        <v>0.22836315646941949</v>
       </c>
       <c r="G84">
         <v>0.1203812105795569</v>
       </c>
       <c r="H84">
-        <v>0.2283631564694195</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>0.22836315646941949</v>
+      </c>
+      <c r="K84">
+        <f>E84/D84</f>
+        <v>1</v>
+      </c>
+      <c r="L84">
+        <f>H84/F84</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -2895,8 +3622,16 @@
       <c r="H85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:8">
+      <c r="K85">
+        <f>E85/D85</f>
+        <v>1</v>
+      </c>
+      <c r="L85" t="e">
+        <f>H85/F85</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -2907,10 +3642,10 @@
         <v>91</v>
       </c>
       <c r="D86">
-        <v>2.119</v>
+        <v>2.1190000000000002</v>
       </c>
       <c r="E86">
-        <v>2.119</v>
+        <v>2.1190000000000002</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -2921,8 +3656,16 @@
       <c r="H86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:8">
+      <c r="K86">
+        <f>E86/D86</f>
+        <v>1</v>
+      </c>
+      <c r="L86" t="e">
+        <f>H86/F86</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -2947,8 +3690,16 @@
       <c r="H87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:8">
+      <c r="K87">
+        <f>E87/D87</f>
+        <v>1</v>
+      </c>
+      <c r="L87" t="e">
+        <f>H87/F87</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -2959,10 +3710,10 @@
         <v>93</v>
       </c>
       <c r="D88">
-        <v>1.781</v>
+        <v>1.7809999999999999</v>
       </c>
       <c r="E88">
-        <v>1.781</v>
+        <v>1.7809999999999999</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -2973,8 +3724,16 @@
       <c r="H88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:8">
+      <c r="K88">
+        <f>E88/D88</f>
+        <v>1</v>
+      </c>
+      <c r="L88" t="e">
+        <f>H88/F88</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -2991,16 +3750,24 @@
         <v>1.421</v>
       </c>
       <c r="F89">
-        <v>-2.439073568501596E-15</v>
+        <v>-2.4390735685015959E-15</v>
       </c>
       <c r="G89">
         <v>-1.716448675933565E-15</v>
       </c>
       <c r="H89">
-        <v>-2.439073568501596E-15</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>-2.4390735685015959E-15</v>
+      </c>
+      <c r="K89">
+        <f>E89/D89</f>
+        <v>1</v>
+      </c>
+      <c r="L89">
+        <f>H89/F89</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -3025,8 +3792,16 @@
       <c r="H90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:8">
+      <c r="K90">
+        <f>E90/D90</f>
+        <v>1</v>
+      </c>
+      <c r="L90" t="e">
+        <f>H90/F90</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -3037,10 +3812,10 @@
         <v>96</v>
       </c>
       <c r="D91">
-        <v>1.813</v>
+        <v>1.8129999999999999</v>
       </c>
       <c r="E91">
-        <v>1.813</v>
+        <v>1.8129999999999999</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -3051,8 +3826,16 @@
       <c r="H91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:8">
+      <c r="K91">
+        <f>E91/D91</f>
+        <v>1</v>
+      </c>
+      <c r="L91" t="e">
+        <f>H91/F91</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -3063,22 +3846,30 @@
         <v>97</v>
       </c>
       <c r="D92">
-        <v>1.519</v>
+        <v>1.5189999999999999</v>
       </c>
       <c r="E92">
-        <v>0.5180051383224369</v>
+        <v>0.51800513832243689</v>
       </c>
       <c r="F92">
-        <v>2.503231881203983E-14</v>
+        <v>2.5032318812039829E-14</v>
       </c>
       <c r="G92">
-        <v>1.647947255565492E-14</v>
+        <v>1.6479472555654919E-14</v>
       </c>
       <c r="H92">
-        <v>8.536451460672831E-15</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>8.5364514606728311E-15</v>
+      </c>
+      <c r="K92">
+        <f>E92/D92</f>
+        <v>0.3410172075855411</v>
+      </c>
+      <c r="L92">
+        <f>H92/F92</f>
+        <v>0.34101720758554105</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -3103,8 +3894,16 @@
       <c r="H93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:8">
+      <c r="K93">
+        <f>E93/D93</f>
+        <v>1</v>
+      </c>
+      <c r="L93" t="e">
+        <f>H93/F93</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -3118,19 +3917,27 @@
         <v>1.556064107752364</v>
       </c>
       <c r="E94">
-        <v>2.560470050763745</v>
+        <v>2.5604700507637448</v>
       </c>
       <c r="F94">
         <v>1.154155732316704</v>
       </c>
       <c r="G94">
-        <v>0.7417147703405408</v>
+        <v>0.74171477034054079</v>
       </c>
       <c r="H94">
         <v>1.899138455666064</v>
       </c>
-    </row>
-    <row r="95" spans="1:8">
+      <c r="K94">
+        <f>E94/D94</f>
+        <v>1.6454785108193142</v>
+      </c>
+      <c r="L94">
+        <f>H94/F94</f>
+        <v>1.6454785108193133</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -3141,10 +3948,10 @@
         <v>100</v>
       </c>
       <c r="D95">
-        <v>2.259</v>
+        <v>2.2589999999999999</v>
       </c>
       <c r="E95">
-        <v>2.259</v>
+        <v>2.2589999999999999</v>
       </c>
       <c r="F95">
         <v>0</v>
@@ -3155,8 +3962,16 @@
       <c r="H95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:8">
+      <c r="K95">
+        <f>E95/D95</f>
+        <v>1</v>
+      </c>
+      <c r="L95" t="e">
+        <f>H95/F95</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -3170,7 +3985,7 @@
         <v>1.567168678359409</v>
       </c>
       <c r="E96">
-        <v>2.57237552277612</v>
+        <v>2.5723755227761198</v>
       </c>
       <c r="F96">
         <v>0</v>
@@ -3181,8 +3996,16 @@
       <c r="H96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:8">
+      <c r="K96">
+        <f>E96/D96</f>
+        <v>1.6414158592481647</v>
+      </c>
+      <c r="L96" t="e">
+        <f>H96/F96</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -3205,10 +4028,18 @@
         <v>5.882352941176471</v>
       </c>
       <c r="H97">
-        <v>20.11176470588235</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>20.111764705882351</v>
+      </c>
+      <c r="K97">
+        <f>E97/D97</f>
+        <v>2.0111764705882353</v>
+      </c>
+      <c r="L97">
+        <f>H97/F97</f>
+        <v>2.0111764705882349</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -3231,7 +4062,15 @@
         <v>5.882352941176471</v>
       </c>
       <c r="H98">
-        <v>20.11176470588235</v>
+        <v>20.111764705882351</v>
+      </c>
+      <c r="K98">
+        <f>E98/D98</f>
+        <v>2.0111764705882353</v>
+      </c>
+      <c r="L98">
+        <f>H98/F98</f>
+        <v>2.0111764705882349</v>
       </c>
     </row>
   </sheetData>
